--- a/clinic_data.xlsx
+++ b/clinic_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Программирование\Проекты\БИЗНЕС\telegram-test-bot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4659DC4-6AD3-46BB-89FC-1DD5417AB97D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BD3AE2B-4A3A-425F-8520-9B505D77F518}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -52,6 +52,9 @@
     <t>Дата создания</t>
   </si>
   <si>
+    <t>Новая</t>
+  </si>
+  <si>
     <t>Дата</t>
   </si>
   <si>
@@ -76,6 +79,9 @@
     <t>Новый</t>
   </si>
   <si>
+    <t>Лучший центр!</t>
+  </si>
+  <si>
     <t>Вопрос</t>
   </si>
   <si>
@@ -88,9 +94,6 @@
     <t>У меня запор что мне есть что бы срать нормально?</t>
   </si>
   <si>
-    <t>Новая</t>
-  </si>
-  <si>
     <t>Имя</t>
   </si>
   <si>
@@ -104,22 +107,24 @@
   </si>
   <si>
     <t>2025-08-18 10:06:57</t>
-  </si>
-  <si>
-    <t>Лучший центр!</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <b/>
@@ -147,13 +152,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -456,50 +462,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="A2:I2"/>
+      <selection activeCell="J2" sqref="A2:J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="8" max="8" width="14" customWidth="1"/>
-    <col min="9" max="9" width="15.6640625" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B2" s="2"/>
-      <c r="I2" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -521,16 +519,16 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>7</v>
@@ -541,42 +539,42 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2">
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2">
         <v>6693835870</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
+      <c r="A3">
         <v>45887.632870370369</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3">
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E3">
         <v>6693835870</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -594,10 +592,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>7</v>
@@ -606,21 +604,21 @@
         <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C2">
         <v>6693835870</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -641,21 +639,21 @@
         <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/clinic_data.xlsx
+++ b/clinic_data.xlsx
@@ -1,146 +1,55 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Программирование\Проекты\БИЗНЕС\telegram-test-bot\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BD3AE2B-4A3A-425F-8520-9B505D77F518}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Записи на прием" sheetId="1" r:id="rId1"/>
-    <sheet name="Отзывы" sheetId="2" r:id="rId2"/>
-    <sheet name="Онлайн консультации" sheetId="3" r:id="rId3"/>
-    <sheet name="Подписчики" sheetId="4" r:id="rId4"/>
+    <sheet name="Записи на прием" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Отзывы" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Онлайн консультации" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Подписчики" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
-  <si>
-    <t>Дата записи</t>
-  </si>
-  <si>
-    <t>Время</t>
-  </si>
-  <si>
-    <t>ФИО пациента</t>
-  </si>
-  <si>
-    <t>Телефон</t>
-  </si>
-  <si>
-    <t>Врач</t>
-  </si>
-  <si>
-    <t>Специализация</t>
-  </si>
-  <si>
-    <t>Статус</t>
-  </si>
-  <si>
-    <t>ID пользователя</t>
-  </si>
-  <si>
-    <t>Дата создания</t>
-  </si>
-  <si>
-    <t>Новая</t>
-  </si>
-  <si>
-    <t>Дата</t>
-  </si>
-  <si>
-    <t>ФИО</t>
-  </si>
-  <si>
-    <t>Оценка</t>
-  </si>
-  <si>
-    <t>Отзыв</t>
-  </si>
-  <si>
-    <t>2025-08-18 10:55:05</t>
-  </si>
-  <si>
-    <t>Lexus</t>
-  </si>
-  <si>
-    <t>Люблю современные сервисы с крытми IT решениями. Всё так удобно, просто суппер!!</t>
-  </si>
-  <si>
-    <t>Новый</t>
-  </si>
-  <si>
-    <t>Лучший центр!</t>
-  </si>
-  <si>
-    <t>Вопрос</t>
-  </si>
-  <si>
-    <t>Ответ</t>
-  </si>
-  <si>
-    <t>2025-08-18 14:01:35</t>
-  </si>
-  <si>
-    <t>У меня запор что мне есть что бы срать нормально?</t>
-  </si>
-  <si>
-    <t>Имя</t>
-  </si>
-  <si>
-    <t>Дата подписки</t>
-  </si>
-  <si>
-    <t>test_user</t>
-  </si>
-  <si>
-    <t>Test User</t>
-  </si>
-  <si>
-    <t>2025-08-18 10:06:57</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="4">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <name val="Calibri"/>
+      <b val="1"/>
       <sz val="11"/>
-      <name val="Calibri"/>
     </font>
     <font>
-      <b/>
+      <name val="Calibri"/>
+      <b val="1"/>
       <sz val="11"/>
-      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -148,32 +57,100 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -461,42 +438,111 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="A2:J2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
+    <row r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>Дата записи</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>Время</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>ФИО пациента</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Телефон</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Врач</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Специализация</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Статус</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>ID пользователя</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Дата создания</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>19.08.2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>09:00</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>а</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>а</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Иванов Иван Иванович</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Терапевт</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Новая</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>6693835870</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>2025-08-18 16:51:17</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -505,76 +551,106 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="A3:F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="13.21875" customWidth="1"/>
+    <col width="13.21875" customWidth="1" min="1" max="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Дата</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>ФИО</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Оценка</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Отзыв</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>ID пользователя</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Статус</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2025-08-18 10:55:05</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Lexus</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2">
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Люблю современные сервисы с крытми IT решениями. Всё так удобно, просто суппер!!</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
         <v>6693835870</v>
       </c>
-      <c r="F2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>45887.632870370369</v>
-      </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3">
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Новый</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>45887.63287037037</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Lexus</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
         <v>5</v>
       </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3">
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Лучший центр!</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
         <v>6693835870</v>
       </c>
-      <c r="F3" t="s">
-        <v>17</v>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Новый</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -583,42 +659,64 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Дата</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Вопрос</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>ID пользователя</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Статус</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Ответ</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2025-08-18 14:01:35</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>У меня запор что мне есть что бы срать нормально?</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
         <v>6693835870</v>
       </c>
-      <c r="D2" t="s">
-        <v>9</v>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Новая</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -627,33 +725,51 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" t="s">
-        <v>27</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID пользователя</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Имя</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Дата подписки</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>test_user</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Test User</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>2025-08-18 10:06:57</t>
+        </is>
       </c>
     </row>
   </sheetData>
